--- a/Roguelike/仕様関係/Fate～不思議のぐらんどおーだー～(仮) 仕様書 (edit).xlsx
+++ b/Roguelike/仕様関係/Fate～不思議のぐらんどおーだー～(仮) 仕様書 (edit).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16248" windowHeight="7680" tabRatio="752" firstSheet="6" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16248" windowHeight="7680" tabRatio="752" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="メニュー" sheetId="1" r:id="rId1"/>
@@ -6233,7 +6233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
@@ -7175,7 +7175,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>

--- a/Roguelike/仕様関係/Fate～不思議のぐらんどおーだー～(仮) 仕様書 (edit).xlsx
+++ b/Roguelike/仕様関係/Fate～不思議のぐらんどおーだー～(仮) 仕様書 (edit).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16248" windowHeight="7680" tabRatio="752" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16248" windowHeight="7680" tabRatio="752" firstSheet="16" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="メニュー" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="562">
   <si>
     <t>ここにイメージ画像(ダンジョン進入時のもの)</t>
     <rPh sb="7" eb="9">
@@ -5084,6 +5084,182 @@
   </si>
   <si>
     <t>NP封印</t>
+  </si>
+  <si>
+    <t>プレイアブルキャラクター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキル1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキル2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキル3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宝具</t>
+    <rPh sb="0" eb="1">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>グ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ATK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DEF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ステータスは初期値の物</t>
+    <rPh sb="7" eb="10">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>沖田総司</t>
+    <rPh sb="0" eb="2">
+      <t>オキタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セイバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>縮地</t>
+    <rPh sb="0" eb="2">
+      <t>シュクチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>病弱</t>
+    <rPh sb="0" eb="2">
+      <t>ビョウジャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>心眼</t>
+    <rPh sb="0" eb="2">
+      <t>シンガン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無明三段突き</t>
+    <rPh sb="0" eb="2">
+      <t>ムミョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サンダン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マシュ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シールダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誉れ堅き雪花の壁</t>
+    <rPh sb="0" eb="1">
+      <t>ホマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時に煙る白亜の壁</t>
+    <rPh sb="0" eb="1">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケム</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハクア</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奮い断つ決意の壁</t>
+    <rPh sb="0" eb="1">
+      <t>フル</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケツイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いまは遥か理想の城</t>
+    <rPh sb="3" eb="4">
+      <t>ハル</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リソウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -7029,14 +7205,122 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.8984375" customWidth="1"/>
+    <col min="4" max="4" width="15.8984375" customWidth="1"/>
+    <col min="5" max="5" width="15.59765625" customWidth="1"/>
+    <col min="6" max="6" width="15.3984375" customWidth="1"/>
+    <col min="7" max="7" width="17.59765625" customWidth="1"/>
+    <col min="11" max="11" width="22.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C2" t="s">
+        <v>541</v>
+      </c>
+      <c r="D2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E2" t="s">
+        <v>543</v>
+      </c>
+      <c r="F2" t="s">
+        <v>544</v>
+      </c>
+      <c r="G2" t="s">
+        <v>545</v>
+      </c>
+      <c r="H2" t="s">
+        <v>546</v>
+      </c>
+      <c r="I2" t="s">
+        <v>547</v>
+      </c>
+      <c r="J2" t="s">
+        <v>548</v>
+      </c>
+      <c r="K2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>550</v>
+      </c>
+      <c r="C3" t="s">
+        <v>551</v>
+      </c>
+      <c r="D3" t="s">
+        <v>552</v>
+      </c>
+      <c r="E3" t="s">
+        <v>553</v>
+      </c>
+      <c r="F3" t="s">
+        <v>554</v>
+      </c>
+      <c r="G3" t="s">
+        <v>555</v>
+      </c>
+      <c r="H3">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>556</v>
+      </c>
+      <c r="C4" t="s">
+        <v>557</v>
+      </c>
+      <c r="D4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E4" t="s">
+        <v>559</v>
+      </c>
+      <c r="F4" t="s">
+        <v>560</v>
+      </c>
+      <c r="G4" t="s">
+        <v>561</v>
+      </c>
+      <c r="H4">
+        <v>16</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7175,7 +7459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>

--- a/Roguelike/仕様関係/Fate～不思議のぐらんどおーだー～(仮) 仕様書 (edit).xlsx
+++ b/Roguelike/仕様関係/Fate～不思議のぐらんどおーだー～(仮) 仕様書 (edit).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9552" tabRatio="752" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9552" tabRatio="752" firstSheet="14" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="メニュー" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="ゲーム画面" sheetId="2" r:id="rId7"/>
     <sheet name="メニュー画面" sheetId="6" r:id="rId8"/>
     <sheet name="キャラクターセレクト画面" sheetId="46" r:id="rId9"/>
-    <sheet name="キャラクター詳細画面" sheetId="71" r:id="rId10"/>
+    <sheet name="プレイヤー詳細画面" sheetId="71" r:id="rId10"/>
     <sheet name="パートナー詳細画面" sheetId="4" r:id="rId11"/>
     <sheet name="ファストトラベル画面" sheetId="67" r:id="rId12"/>
     <sheet name="持ち物画面" sheetId="5" r:id="rId13"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="730">
   <si>
     <t>パーティ</t>
     <phoneticPr fontId="1"/>
@@ -1281,16 +1281,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>キャラクター詳細画面イメージ</t>
-    <rPh sb="6" eb="8">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画像創る</t>
     <rPh sb="0" eb="2">
       <t>ガゾウ</t>
@@ -3517,9 +3507,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>使用可能キャラクターの一覧からプレイヤーキャラクターを選択→決定後、パートナーキャラクターを選択→確認画面</t>
-  </si>
-  <si>
     <t>Eキー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -6115,6 +6102,142 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フロー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定→変更確認→終了</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用可能キャラクターの一覧からプレイヤーキャラクターを選択→決定後、パートナーキャラクターを選択→確認画面→確認→終了</t>
+    <rPh sb="54" eb="56">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択→行先確認→終了</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イキサキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>規定の場面からで表示変化</t>
+    <rPh sb="0" eb="2">
+      <t>キテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクター選択画面から来たときは、パートナーのステータス表示なし</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パートナー詳細画面イメージ</t>
+    <rPh sb="5" eb="7">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム別アクションコマンド</t>
+    <rPh sb="4" eb="5">
+      <t>ベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー詳細、パートナー詳細画面から遷移した場合はその欄のみの表示</t>
+    <rPh sb="5" eb="7">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例)プレイヤー詳細で武器欄を選択→武器欄のみ表示</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6202,7 +6325,7 @@
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6242,7 +6365,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6250,6 +6373,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6323,6 +6449,690 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>60961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B600D1E-ED72-4F32-BF18-3E489DE036D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="2804161"/>
+          <a:ext cx="1615440" cy="548639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>キャラクター詳細画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2748D29C-6BC8-4A0D-9A63-EB4EBDBCE7D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4968240" y="2811780"/>
+          <a:ext cx="1280160" cy="594360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>持ち物画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>106681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8785E24-837E-43AC-A6B0-2F76B49A08FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4091940" y="3078481"/>
+          <a:ext cx="876300" cy="30479"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A9148D8-A6C8-4FEE-8BAE-555F9334C2EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4145280" y="2339340"/>
+          <a:ext cx="944880" cy="297180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>装備欄選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>45721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>678180</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E960F81-583E-415A-9A5D-594AD7ABFE3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2545080" y="4160521"/>
+          <a:ext cx="1615440" cy="548639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>パートナー詳細画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1775460</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6651B5B6-0E33-43BE-8AEB-854F36AA60B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5257800" y="4152900"/>
+          <a:ext cx="1280160" cy="594360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>持ち物画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>678180</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>91441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1775460</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{190100F5-D125-4858-B7A0-D72564D3AC48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4160520" y="4434841"/>
+          <a:ext cx="1097280" cy="15239"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>845820</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1737360</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B17DFC1-E76B-484F-85ED-4698CA8945A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4328160" y="3550920"/>
+          <a:ext cx="891540" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>装備欄選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1089660</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE13532B-3B53-4FEF-9A30-81A49BC7DE9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1691640" y="4130040"/>
+          <a:ext cx="1089660" cy="662940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>持ち物画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>975360</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1920240</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C12F56D-4637-47FF-9066-4E9E8EE4F128}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="21" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2667000" y="4495800"/>
+          <a:ext cx="944880" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1920240</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2057400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89AE8CD3-D551-4CD2-B0CE-23586D5CDDE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3611880" y="4335780"/>
+          <a:ext cx="2240280" cy="350520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アイテム別アクションコマンド</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6625,10 +7435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A57"/>
+  <dimension ref="A1:A58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6638,282 +7448,287 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>591</v>
+        <v>727</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>408</v>
+        <v>591</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>594</v>
+        <v>406</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>630</v>
+        <v>627</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A58" s="1" t="s">
+        <v>628</v>
       </c>
     </row>
   </sheetData>
@@ -6931,48 +7746,49 @@
     <hyperlink ref="A13" location="キャラクター詳細画面!A1" display="キャラクター詳細画面!A1"/>
     <hyperlink ref="A15" location="ファストトラベル画面!A1" display="ファストトラベル画面!A1"/>
     <hyperlink ref="A16" location="持ち物画面!A1" display="持ち物画面!A1"/>
-    <hyperlink ref="A17" location="錬金画面!A1" display="錬金画面!A1"/>
-    <hyperlink ref="A18" location="図鑑画面!A1" display="図鑑画面!A1"/>
-    <hyperlink ref="A19" location="プレイアブルキャラクターステータス詳細!A1" display="プレイアブルキャラクターステータス詳細!A1"/>
-    <hyperlink ref="A20" location="状態異常テーブル!A1" display="状態異常テーブル!A1"/>
-    <hyperlink ref="A21" location="エネミーステータス詳細!A1" display="エネミーステータス詳細!A1"/>
-    <hyperlink ref="A22" location="クラステーブル!A1" display="クラステーブル!A1"/>
-    <hyperlink ref="A23" location="宝具テーブル!A1" display="宝具テーブル!A1"/>
-    <hyperlink ref="A24" location="スキルテーブル!A1" display="スキルテーブル!A1"/>
-    <hyperlink ref="A25" location="各要素の経験値テーブル!A1" display="各要素の経験値テーブル!A1"/>
-    <hyperlink ref="A26" location="プレイアブルキャラクターテーブル!A1" display="プレイアブルキャラクターテーブル!A1"/>
-    <hyperlink ref="A27" location="パートナーAI!A1" display="パートナーAI!A1"/>
-    <hyperlink ref="A28" location="エネミーテーブル!A1" display="エネミーテーブル!A1"/>
-    <hyperlink ref="A29" location="エネミーAI!A1" display="エネミーAI!A1"/>
-    <hyperlink ref="A30" location="装備品の強化要素!A1" display="装備品の強化要素!A1"/>
-    <hyperlink ref="A31" location="武器テーブル!A1" display="武器テーブル!A1"/>
-    <hyperlink ref="A32" location="防具テーブル!A1" display="防具テーブル!A1"/>
-    <hyperlink ref="A33" location="概念礼装テーブル!A1" display="概念礼装テーブル!A1"/>
-    <hyperlink ref="A34" location="遠距離武器テーブル!A1" display="遠距離武器テーブル!A1"/>
-    <hyperlink ref="A35" location="薬品テーブル!A1" display="薬品テーブル!A1"/>
-    <hyperlink ref="A36" location="杖テーブル!A1" display="杖テーブル!A1"/>
-    <hyperlink ref="A37" location="宝具思念体テーブル!A1" display="宝具思念体テーブル!A1"/>
-    <hyperlink ref="A38" location="食べ物テーブル!A1" display="食べ物テーブル!A1"/>
-    <hyperlink ref="A39" location="壺テーブル!A1" display="壺テーブル!A1"/>
-    <hyperlink ref="A40" location="素材テーブル!A1" display="素材テーブル!A1"/>
-    <hyperlink ref="A41" location="調合テーブル!A1" display="調合テーブル!A1"/>
-    <hyperlink ref="A42" location="錬金テーブル!A1" display="錬金テーブル!A1"/>
-    <hyperlink ref="A43" location="図鑑テーブル!A1" display="図鑑テーブル!A1"/>
-    <hyperlink ref="A44" location="セーフティエリア詳細!A1" display="セーフティエリア詳細!A1"/>
-    <hyperlink ref="A45" location="ダンジョン詳細!A1" display="ダンジョン詳細!A1"/>
-    <hyperlink ref="A46" location="ダンジョン種類!A1" display="ダンジョン種類!A1"/>
-    <hyperlink ref="A47" location="ダメージ等各種計算!A1" display="ダメージ等各種計算!A1"/>
-    <hyperlink ref="A48" location="プレイアブルキャラクターリソース!A1" display="プレイアブルキャラクターリソース!A1"/>
-    <hyperlink ref="A49" location="エネミーリソース!A1" display="エネミーリソース!A1"/>
-    <hyperlink ref="A50" location="エフェクトリソース!A1" display="エフェクトリソース!A1"/>
-    <hyperlink ref="A51" location="武器リソース!A1" display="武器リソース!A1"/>
-    <hyperlink ref="A52" location="盾リソース!A1" display="盾リソース!A1"/>
-    <hyperlink ref="A53" location="アイテムリソース!A1" display="アイテムリソース!A1"/>
-    <hyperlink ref="A54" location="罠リソース!A1" display="罠リソース!A1"/>
-    <hyperlink ref="A55" location="ダンジョンタイルリソース!A1" display="ダンジョンタイルリソース!A1"/>
-    <hyperlink ref="A56" location="セーフティエリアタイルリソース!A1" display="セーフティエリアタイルリソース!A1"/>
-    <hyperlink ref="A57" location="編集許可!A1" display="編集許可!A1"/>
+    <hyperlink ref="A18" location="錬金画面!A1" display="錬金画面!A1"/>
+    <hyperlink ref="A19" location="図鑑画面!A1" display="図鑑画面!A1"/>
+    <hyperlink ref="A20" location="プレイアブルキャラクターステータス詳細!A1" display="プレイアブルキャラクターステータス詳細!A1"/>
+    <hyperlink ref="A21" location="状態異常テーブル!A1" display="状態異常テーブル!A1"/>
+    <hyperlink ref="A22" location="エネミーステータス詳細!A1" display="エネミーステータス詳細!A1"/>
+    <hyperlink ref="A23" location="クラステーブル!A1" display="クラステーブル!A1"/>
+    <hyperlink ref="A24" location="宝具テーブル!A1" display="宝具テーブル!A1"/>
+    <hyperlink ref="A25" location="スキルテーブル!A1" display="スキルテーブル!A1"/>
+    <hyperlink ref="A26" location="各要素の経験値テーブル!A1" display="各要素の経験値テーブル!A1"/>
+    <hyperlink ref="A27" location="プレイアブルキャラクターテーブル!A1" display="プレイアブルキャラクターテーブル!A1"/>
+    <hyperlink ref="A28" location="パートナーAI!A1" display="パートナーAI!A1"/>
+    <hyperlink ref="A29" location="エネミーテーブル!A1" display="エネミーテーブル!A1"/>
+    <hyperlink ref="A30" location="エネミーAI!A1" display="エネミーAI!A1"/>
+    <hyperlink ref="A31" location="装備品の強化要素!A1" display="装備品の強化要素!A1"/>
+    <hyperlink ref="A32" location="武器テーブル!A1" display="武器テーブル!A1"/>
+    <hyperlink ref="A33" location="防具テーブル!A1" display="防具テーブル!A1"/>
+    <hyperlink ref="A34" location="概念礼装テーブル!A1" display="概念礼装テーブル!A1"/>
+    <hyperlink ref="A35" location="遠距離武器テーブル!A1" display="遠距離武器テーブル!A1"/>
+    <hyperlink ref="A36" location="薬品テーブル!A1" display="薬品テーブル!A1"/>
+    <hyperlink ref="A37" location="杖テーブル!A1" display="杖テーブル!A1"/>
+    <hyperlink ref="A38" location="宝具思念体テーブル!A1" display="宝具思念体テーブル!A1"/>
+    <hyperlink ref="A39" location="食べ物テーブル!A1" display="食べ物テーブル!A1"/>
+    <hyperlink ref="A40" location="壺テーブル!A1" display="壺テーブル!A1"/>
+    <hyperlink ref="A41" location="素材テーブル!A1" display="素材テーブル!A1"/>
+    <hyperlink ref="A42" location="調合テーブル!A1" display="調合テーブル!A1"/>
+    <hyperlink ref="A43" location="錬金テーブル!A1" display="錬金テーブル!A1"/>
+    <hyperlink ref="A44" location="図鑑テーブル!A1" display="図鑑テーブル!A1"/>
+    <hyperlink ref="A45" location="セーフティエリア詳細!A1" display="セーフティエリア詳細!A1"/>
+    <hyperlink ref="A46" location="ダンジョン詳細!A1" display="ダンジョン詳細!A1"/>
+    <hyperlink ref="A47" location="ダンジョン種類!A1" display="ダンジョン種類!A1"/>
+    <hyperlink ref="A48" location="ダメージ等各種計算!A1" display="ダメージ等各種計算!A1"/>
+    <hyperlink ref="A49" location="プレイアブルキャラクターリソース!A1" display="プレイアブルキャラクターリソース!A1"/>
+    <hyperlink ref="A50" location="エネミーリソース!A1" display="エネミーリソース!A1"/>
+    <hyperlink ref="A51" location="エフェクトリソース!A1" display="エフェクトリソース!A1"/>
+    <hyperlink ref="A52" location="武器リソース!A1" display="武器リソース!A1"/>
+    <hyperlink ref="A53" location="盾リソース!A1" display="盾リソース!A1"/>
+    <hyperlink ref="A54" location="アイテムリソース!A1" display="アイテムリソース!A1"/>
+    <hyperlink ref="A55" location="罠リソース!A1" display="罠リソース!A1"/>
+    <hyperlink ref="A56" location="ダンジョンタイルリソース!A1" display="ダンジョンタイルリソース!A1"/>
+    <hyperlink ref="A57" location="セーフティエリアタイルリソース!A1" display="セーフティエリアタイルリソース!A1"/>
+    <hyperlink ref="A58" location="編集許可!A1" display="編集許可!A1"/>
     <hyperlink ref="A5" location="各種画面へのフロー!A1" display="各種画面へのフロー"/>
+    <hyperlink ref="A17" location="アイテム別アクションコマンド!A1" display="アイテム別アクションコマンド"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6981,10 +7797,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6995,58 +7811,64 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>648</v>
-      </c>
-      <c r="C4" t="s">
-        <v>649</v>
+      <c r="A4" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C5" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="C6" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>715</v>
+        <v>649</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C7" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>720</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="A8" location="持ち物画面!A1" display="装備欄選択時は'持ち物画面'へ"/>
+    <hyperlink ref="A9" location="持ち物画面!A1" display="装備欄選択時は'持ち物画面'へ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C10"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7059,46 +7881,59 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>726</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>724</v>
+      </c>
+      <c r="B4" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C8" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C9" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C10" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>720</v>
       </c>
     </row>
   </sheetData>
@@ -7107,6 +7942,7 @@
     <hyperlink ref="A12" location="持ち物画面!A1" display="装備欄選択時は'持ち物画面'へ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7115,48 +7951,56 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C8"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="33.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.09765625" customWidth="1"/>
+    <col min="2" max="2" width="19.69921875" customWidth="1"/>
     <col min="3" max="3" width="37.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>654</v>
+        <v>652</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>720</v>
+      </c>
+      <c r="B3" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C6" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C7" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C8" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
   </sheetData>
@@ -7167,97 +8011,114 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="22.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.59765625" customWidth="1"/>
-    <col min="3" max="3" width="37.3984375" customWidth="1"/>
-    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="34.69921875" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>670</v>
-      </c>
-      <c r="B5" t="s">
-        <v>671</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="14" t="s">
+        <v>728</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="13" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B6" s="14" t="s">
-        <v>685</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="A6" t="s">
+        <v>668</v>
+      </c>
+      <c r="B6" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>657</v>
+      </c>
+      <c r="B10" t="s">
+        <v>646</v>
+      </c>
+      <c r="C10" t="s">
         <v>659</v>
-      </c>
-      <c r="B9" t="s">
-        <v>648</v>
-      </c>
-      <c r="C9" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>662</v>
-      </c>
-      <c r="C10" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="C11" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="C12" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>673</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>674</v>
+        <v>649</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>656</v>
+      </c>
+      <c r="C13" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="14" t="s">
+        <v>671</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>720</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B6:D6"/>
+  <mergeCells count="3">
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="C14" location="アイテム別アクション選択!A1" display="詳しくは'アイテム別アクション選択'参照"/>
+    <hyperlink ref="C15" location="アイテム別アクション選択!A1" display="詳しくは'アイテム別アクション選択'参照"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7265,23 +8126,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="25.59765625" customWidth="1"/>
     <col min="2" max="2" width="16.19921875" customWidth="1"/>
-    <col min="3" max="3" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -7297,7 +8156,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -7306,180 +8165,176 @@
       <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
@@ -7489,110 +8344,110 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B53" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B58" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B59" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B61" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B64" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B66" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B67" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B71" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B72" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B73" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B74" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B78" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
@@ -7600,7 +8455,7 @@
         <v>45</v>
       </c>
       <c r="C82" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
@@ -7613,10 +8468,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B84" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C84" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -7633,7 +8488,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7645,12 +8500,17 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>694</v>
+        <v>692</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -7658,7 +8518,7 @@
         <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -7671,10 +8531,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -7700,12 +8560,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -7713,15 +8573,15 @@
         <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -7749,40 +8609,40 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -7790,10 +8650,10 @@
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -7801,68 +8661,68 @@
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B8" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="14" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C13" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -7901,7 +8761,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -7927,10 +8787,10 @@
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -7945,10 +8805,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" t="s">
         <v>228</v>
-      </c>
-      <c r="C8" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -7964,18 +8824,18 @@
         <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="36" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>224</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -7988,52 +8848,52 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" t="s">
         <v>215</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C16" t="s">
         <v>218</v>
-      </c>
-      <c r="C16" t="s">
-        <v>219</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>75</v>
@@ -8045,91 +8905,91 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
+        <v>212</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B28" t="s">
+        <v>241</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>243</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="36" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
+        <v>244</v>
+      </c>
+      <c r="B29" t="s">
         <v>245</v>
       </c>
-      <c r="B29" t="s">
-        <v>246</v>
-      </c>
       <c r="C29" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="36" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C32" t="s">
         <v>247</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B33" t="s">
+        <v>249</v>
+      </c>
+      <c r="C33" t="s">
         <v>250</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -8183,14 +9043,14 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>180</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>181</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -8210,10 +9070,10 @@
         <v>80</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -8221,7 +9081,7 @@
         <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -8229,7 +9089,7 @@
         <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -8248,7 +9108,7 @@
         <v>92</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -8267,8 +9127,8 @@
       <c r="C15" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>191</v>
+      <c r="D15" s="16" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -8278,16 +9138,16 @@
       <c r="C16" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="13"/>
+      <c r="D16" s="16"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C17" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="16"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
@@ -8296,7 +9156,7 @@
       <c r="C18" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="16"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
@@ -8305,7 +9165,7 @@
       <c r="C19" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
@@ -8314,11 +9174,11 @@
       <c r="C20" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="13"/>
+      <c r="D20" s="16"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C21" t="s">
         <v>100</v>
@@ -8329,7 +9189,7 @@
         <v>101</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
@@ -8343,10 +9203,10 @@
     </row>
     <row r="25" spans="1:4" ht="108" x14ac:dyDescent="0.45">
       <c r="B25" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D25" s="1"/>
     </row>
@@ -8355,13 +9215,13 @@
         <v>111</v>
       </c>
       <c r="B26" t="s">
+        <v>253</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
@@ -8369,36 +9229,36 @@
         <v>112</v>
       </c>
       <c r="B27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D29" s="1"/>
     </row>
@@ -8412,13 +9272,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
@@ -8444,7 +9304,7 @@
         <v>117</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
@@ -8467,7 +9327,7 @@
         <v>120</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
@@ -8475,10 +9335,10 @@
         <v>121</v>
       </c>
       <c r="C42" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
@@ -8495,15 +9355,15 @@
         <v>126</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
@@ -8516,13 +9376,13 @@
         <v>124</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.45">
@@ -8576,89 +9436,89 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>630</v>
+      </c>
+      <c r="B6" t="s">
         <v>632</v>
-      </c>
-      <c r="B6" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B7" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
+        <v>637</v>
+      </c>
+      <c r="B11" t="s">
         <v>639</v>
-      </c>
-      <c r="B11" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B15" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -8685,94 +9545,94 @@
   <sheetData>
     <row r="1" spans="1:5" ht="36" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="54" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="36" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" t="s">
         <v>132</v>
       </c>
-      <c r="C7" t="s">
-        <v>133</v>
-      </c>
       <c r="D7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" t="s">
         <v>143</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>144</v>
-      </c>
-      <c r="D8" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="36" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" t="s">
         <v>148</v>
       </c>
-      <c r="C9" t="s">
-        <v>149</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -8780,33 +9640,33 @@
         <v>113</v>
       </c>
       <c r="C10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" t="s">
         <v>173</v>
-      </c>
-      <c r="D10" t="s">
-        <v>174</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C11" t="s">
         <v>262</v>
       </c>
-      <c r="C11" t="s">
-        <v>263</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="72" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -8816,179 +9676,179 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" t="s">
         <v>146</v>
       </c>
-      <c r="C16" t="s">
-        <v>147</v>
-      </c>
       <c r="D16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" t="s">
         <v>150</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>151</v>
-      </c>
-      <c r="D17" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" t="s">
         <v>167</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>168</v>
-      </c>
-      <c r="D18" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="36" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" t="s">
         <v>171</v>
-      </c>
-      <c r="D19" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C20" t="s">
         <v>269</v>
-      </c>
-      <c r="C20" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C40" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C41" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C42" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C43" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C44" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C45" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C46" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C47" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C48" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C49" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B53" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B55" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B56" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B57" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B58" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B59" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -9009,7 +9869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -9022,13 +9882,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C1" t="s">
         <v>409</v>
-      </c>
-      <c r="B1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C1" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -9036,10 +9896,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -9047,10 +9907,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -9058,10 +9918,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -9069,10 +9929,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -9080,10 +9940,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -9091,10 +9951,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -9102,10 +9962,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C8" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -9113,10 +9973,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -9124,10 +9984,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -9135,10 +9995,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C11" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -9146,10 +10006,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C12" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -9157,10 +10017,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -9168,10 +10028,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C14" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -9179,10 +10039,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C15" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
@@ -9190,10 +10050,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C16" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -9201,10 +10061,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C17" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -9212,10 +10072,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C18" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
@@ -9223,10 +10083,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C19" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
@@ -9234,10 +10094,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C20" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
@@ -9245,10 +10105,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C21" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
@@ -9256,10 +10116,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -9267,10 +10127,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C23" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
@@ -9278,10 +10138,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C24" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
@@ -9289,10 +10149,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C25" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
@@ -9300,10 +10160,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C26" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
@@ -9311,10 +10171,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C27" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
@@ -9322,10 +10182,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C28" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
@@ -9333,10 +10193,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C29" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
@@ -9344,10 +10204,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C30" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
@@ -9355,10 +10215,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C31" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
@@ -9366,10 +10226,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C32" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
@@ -9377,10 +10237,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C33" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
@@ -9388,10 +10248,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C34" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
@@ -9399,10 +10259,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C35" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
@@ -9410,10 +10270,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C36" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
@@ -9421,10 +10281,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C37" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
@@ -9432,10 +10292,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C38" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
@@ -9443,10 +10303,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C39" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
@@ -9454,10 +10314,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C40" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
@@ -9465,10 +10325,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C41" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
@@ -9476,10 +10336,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C42" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
@@ -9487,10 +10347,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C43" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
@@ -9498,10 +10358,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C44" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
@@ -9509,10 +10369,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C45" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
@@ -9520,10 +10380,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C46" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
@@ -9531,10 +10391,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C47" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
@@ -9542,10 +10402,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C48" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
@@ -9553,10 +10413,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C49" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
@@ -9564,10 +10424,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C50" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
@@ -9575,10 +10435,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C51" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
@@ -9586,10 +10446,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C52" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
@@ -9597,10 +10457,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C53" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
@@ -9608,10 +10468,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C54" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
@@ -9619,10 +10479,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C55" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
@@ -9630,10 +10490,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C56" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
@@ -9641,10 +10501,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C57" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
@@ -9652,10 +10512,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C58" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -9697,25 +10557,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E1" t="s">
         <v>395</v>
       </c>
-      <c r="D1" t="s">
-        <v>396</v>
-      </c>
-      <c r="E1" t="s">
-        <v>397</v>
-      </c>
       <c r="F1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -9723,7 +10583,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
@@ -9735,10 +10595,10 @@
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -9746,7 +10606,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C3" s="9">
         <v>1</v>
@@ -9758,10 +10618,10 @@
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -9769,7 +10629,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C4" s="10">
         <v>0.9</v>
@@ -9781,10 +10641,10 @@
         <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -9792,7 +10652,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C5" s="11">
         <v>1.1000000000000001</v>
@@ -9804,10 +10664,10 @@
         <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -9815,7 +10675,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C6" s="9">
         <v>1</v>
@@ -9827,10 +10687,10 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -9838,7 +10698,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C7" s="11">
         <v>0.9</v>
@@ -9850,10 +10710,10 @@
         <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -9861,7 +10721,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C8" s="11">
         <v>0.9</v>
@@ -9873,10 +10733,10 @@
         <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -9884,7 +10744,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C9" s="11">
         <v>1.1000000000000001</v>
@@ -9896,10 +10756,10 @@
         <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -9907,7 +10767,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C10" s="11">
         <v>1.1000000000000001</v>
@@ -9919,33 +10779,33 @@
         <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" t="s">
+        <v>393</v>
+      </c>
+      <c r="D13" t="s">
+        <v>394</v>
+      </c>
+      <c r="E13" t="s">
         <v>395</v>
       </c>
-      <c r="D13" t="s">
-        <v>396</v>
-      </c>
-      <c r="E13" t="s">
-        <v>397</v>
-      </c>
       <c r="F13" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -9953,7 +10813,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C14" s="11">
         <v>1.1000000000000001</v>
@@ -9965,10 +10825,10 @@
         <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G14" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -10019,12 +10879,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -10050,59 +10910,59 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E2" t="s">
         <v>536</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>537</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>538</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>539</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>540</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>541</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>542</v>
-      </c>
-      <c r="J2" t="s">
-        <v>543</v>
-      </c>
-      <c r="K2" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C3" t="s">
+        <v>485</v>
+      </c>
+      <c r="D3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E3" t="s">
         <v>545</v>
       </c>
-      <c r="C3" t="s">
-        <v>487</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>546</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>547</v>
-      </c>
-      <c r="F3" t="s">
-        <v>548</v>
-      </c>
-      <c r="G3" t="s">
-        <v>549</v>
       </c>
       <c r="H3">
         <v>15</v>
@@ -10116,22 +10976,22 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
+        <v>548</v>
+      </c>
+      <c r="C4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D4" t="s">
+        <v>549</v>
+      </c>
+      <c r="E4" t="s">
         <v>550</v>
       </c>
-      <c r="C4" t="s">
-        <v>399</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>551</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>552</v>
-      </c>
-      <c r="F4" t="s">
-        <v>553</v>
-      </c>
-      <c r="G4" t="s">
-        <v>554</v>
       </c>
       <c r="H4">
         <v>16</v>
@@ -10194,98 +11054,98 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="36" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" t="s">
         <v>234</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>236</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" t="s">
         <v>136</v>
       </c>
-      <c r="D6" t="s">
-        <v>137</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="36" x14ac:dyDescent="0.45">
       <c r="B7" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="36" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="54" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
+        <v>296</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" t="s">
         <v>298</v>
-      </c>
-      <c r="D10" t="s">
-        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -10342,12 +11202,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -10355,7 +11215,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B3">
         <v>30</v>
@@ -10462,15 +11322,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
   </sheetData>
@@ -10573,17 +11433,17 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C4">
         <v>38</v>
@@ -10591,7 +11451,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C5">
         <v>58</v>
@@ -10599,7 +11459,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -10652,135 +11512,135 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D5" t="s">
         <v>366</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>367</v>
-      </c>
-      <c r="D5" t="s">
-        <v>368</v>
-      </c>
-      <c r="E5" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
+        <v>386</v>
+      </c>
+      <c r="B16" t="s">
+        <v>355</v>
+      </c>
+      <c r="C16" t="s">
+        <v>387</v>
+      </c>
+      <c r="D16" t="s">
         <v>388</v>
-      </c>
-      <c r="B16" t="s">
-        <v>357</v>
-      </c>
-      <c r="C16" t="s">
-        <v>389</v>
-      </c>
-      <c r="D16" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
@@ -10788,445 +11648,445 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C27" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B38" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D38" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E38" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C39" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C51" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B53" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B55" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B56" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B57" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B58" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B61" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B62" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C62" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B63" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B64" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B66" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B67" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B68" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B69" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B72" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B73" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C73" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B74" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B75" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B76" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B77" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B78" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B79" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B80" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B82" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C82" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B83" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C83" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B84" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B85" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B86" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B87" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B88" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B89" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B90" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
+        <v>376</v>
+      </c>
+      <c r="B93" t="s">
+        <v>377</v>
+      </c>
+      <c r="C93" t="s">
         <v>378</v>
-      </c>
-      <c r="B93" t="s">
-        <v>379</v>
-      </c>
-      <c r="C93" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B94" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B98" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B102" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B106" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B110" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
+        <v>382</v>
+      </c>
+      <c r="B113" t="s">
+        <v>355</v>
+      </c>
+      <c r="C113" t="s">
+        <v>383</v>
+      </c>
+      <c r="D113" t="s">
         <v>384</v>
       </c>
-      <c r="B113" t="s">
-        <v>357</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="E113" t="s">
         <v>385</v>
-      </c>
-      <c r="D113" t="s">
-        <v>386</v>
-      </c>
-      <c r="E113" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B114" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C114" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B115" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B116" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B117" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B118" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B119" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B120" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B121" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B125" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -11240,7 +12100,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -11264,7 +12126,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -11272,7 +12134,7 @@
         <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -11459,38 +12321,38 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -11554,84 +12416,84 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B11" s="14"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B12" s="14"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B13" s="14"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B14" s="14"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B15" s="14"/>
     </row>
     <row r="19" spans="1:14" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="A19" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
+      <c r="A19" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11645,11 +12507,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -11660,36 +12520,44 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>704</v>
+        <v>701</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>720</v>
+      </c>
+      <c r="B3" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>705</v>
-      </c>
-      <c r="C5" t="s">
-        <v>573</v>
+      <c r="A5" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>47</v>
+        <v>703</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>571</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>706</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>576</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>704</v>
+      </c>
+      <c r="C8" t="s">
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -11702,8 +12570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="C17" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="C28" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -11717,15 +12585,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -11813,7 +12681,7 @@
         <v>52</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
@@ -11842,7 +12710,7 @@
         <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D23" s="1"/>
     </row>
@@ -11857,10 +12725,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" t="s">
         <v>177</v>
-      </c>
-      <c r="C25" t="s">
-        <v>178</v>
       </c>
       <c r="D25" s="1"/>
     </row>
@@ -11901,7 +12769,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C32" t="s">
         <v>59</v>
@@ -11921,7 +12789,7 @@
         <v>68</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.45">
@@ -11929,13 +12797,13 @@
         <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.45">
@@ -11973,7 +12841,7 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C38" t="s">
         <v>48</v>
@@ -11982,21 +12850,21 @@
         <v>74</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
+        <v>557</v>
+      </c>
+      <c r="C39" t="s">
         <v>559</v>
-      </c>
-      <c r="C39" t="s">
-        <v>561</v>
       </c>
       <c r="D39" t="s">
         <v>74</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -12019,7 +12887,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -12042,99 +12910,99 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B5" t="s">
         <v>287</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B6" t="s">
         <v>285</v>
       </c>
-      <c r="B6" t="s">
-        <v>286</v>
-      </c>
       <c r="C6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B7" t="s">
         <v>282</v>
       </c>
-      <c r="B7" t="s">
-        <v>283</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B8" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B9" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C13" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C14" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C15" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -12152,10 +13020,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C14"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -12172,12 +13040,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -12190,67 +13058,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>722</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-    </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>645</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
+      <c r="A14" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>647</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>307</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>646</v>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>643</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>645</v>
+      </c>
+      <c r="C18" t="s">
+        <v>305</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>644</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="E8" location="キャラクター詳細画面!A1" display="キャラクター詳細画面は'キャラクター詳細画面'参照"/>
-    <hyperlink ref="D15" location="パートナー詳細詳細画面!A1" display="選択後は'パートナー詳細'参照"/>
+    <hyperlink ref="E11" location="キャラクター詳細画面!A1" display="キャラクター詳細画面は'キャラクター詳細画面'参照"/>
+    <hyperlink ref="D18" location="パートナー詳細詳細画面!A1" display="選択後は'パートナー詳細'参照"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Roguelike/仕様関係/Fate～不思議のぐらんどおーだー～(仮) 仕様書 (edit).xlsx
+++ b/Roguelike/仕様関係/Fate～不思議のぐらんどおーだー～(仮) 仕様書 (edit).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9552" tabRatio="752" firstSheet="14" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9552" tabRatio="752" firstSheet="38" activeTab="47"/>
   </bookViews>
   <sheets>
     <sheet name="メニュー" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="738">
   <si>
     <t>パーティ</t>
     <phoneticPr fontId="1"/>
@@ -6238,6 +6238,92 @@
     </rPh>
     <rPh sb="22" eb="24">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメージ等各種計算</t>
+    <rPh sb="4" eb="5">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レベル攻撃力 + ちから攻撃力 + 装備攻撃力</t>
+    <rPh sb="3" eb="6">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レベル攻撃力 = (レベル * 0.4 + 1) * 24 -3</t>
+    <rPh sb="3" eb="6">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちから攻撃力</t>
+    <rPh sb="3" eb="6">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちから７以下 ()</t>
+    <rPh sb="4" eb="6">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(攻撃 * 乱数 / 100 - 守備) * 追加効果</t>
+    <rPh sb="1" eb="3">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ランスウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュビ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -8126,7 +8212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A67" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -9869,7 +9955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -11483,12 +11569,59 @@
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="38.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>732</v>
+      </c>
+      <c r="B5" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>731</v>
+      </c>
+      <c r="B7" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>735</v>
+      </c>
+      <c r="C9" t="s">
+        <v>736</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Roguelike/仕様関係/Fate～不思議のぐらんどおーだー～(仮) 仕様書 (edit).xlsx
+++ b/Roguelike/仕様関係/Fate～不思議のぐらんどおーだー～(仮) 仕様書 (edit).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9552" tabRatio="752" firstSheet="38" activeTab="47"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9552" tabRatio="752" firstSheet="28" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="メニュー" sheetId="1" r:id="rId1"/>
@@ -55,28 +55,30 @@
     <sheet name="素材テーブル" sheetId="15" r:id="rId41"/>
     <sheet name="調合テーブル" sheetId="55" r:id="rId42"/>
     <sheet name="錬金テーブル" sheetId="54" r:id="rId43"/>
-    <sheet name="図鑑テーブル" sheetId="47" r:id="rId44"/>
-    <sheet name="セーフティエリア詳細" sheetId="38" r:id="rId45"/>
-    <sheet name="ダンジョン詳細" sheetId="22" r:id="rId46"/>
-    <sheet name="ダンジョン種類" sheetId="7" r:id="rId47"/>
-    <sheet name="ダメージ等各種計算" sheetId="10" r:id="rId48"/>
-    <sheet name="プレイアブルキャラクターリソース" sheetId="57" r:id="rId49"/>
-    <sheet name="エネミーリソース" sheetId="58" r:id="rId50"/>
-    <sheet name="エフェクトリソース" sheetId="65" r:id="rId51"/>
-    <sheet name="武器リソース" sheetId="59" r:id="rId52"/>
-    <sheet name="盾リソース" sheetId="60" r:id="rId53"/>
-    <sheet name="アイテムリソース" sheetId="61" r:id="rId54"/>
-    <sheet name="罠リソース" sheetId="62" r:id="rId55"/>
-    <sheet name="ダンジョンタイルリソース" sheetId="63" r:id="rId56"/>
-    <sheet name="セーフティエリアタイルリソース" sheetId="64" r:id="rId57"/>
-    <sheet name="編集許可" sheetId="56" r:id="rId58"/>
+    <sheet name="罠テーブル" sheetId="73" r:id="rId44"/>
+    <sheet name="図鑑テーブル" sheetId="47" r:id="rId45"/>
+    <sheet name="セーフティエリア詳細" sheetId="38" r:id="rId46"/>
+    <sheet name="ダンジョン詳細" sheetId="22" r:id="rId47"/>
+    <sheet name="ダンジョン種類" sheetId="7" r:id="rId48"/>
+    <sheet name="ダメージ等各種計算" sheetId="10" r:id="rId49"/>
+    <sheet name="プレイアブルキャラクターリソース" sheetId="57" r:id="rId50"/>
+    <sheet name="エネミーリソース" sheetId="58" r:id="rId51"/>
+    <sheet name="エフェクトリソース" sheetId="65" r:id="rId52"/>
+    <sheet name="武器リソース" sheetId="59" r:id="rId53"/>
+    <sheet name="盾リソース" sheetId="60" r:id="rId54"/>
+    <sheet name="アイテムリソース" sheetId="61" r:id="rId55"/>
+    <sheet name="罠リソース" sheetId="62" r:id="rId56"/>
+    <sheet name="ダンジョンタイルリソース" sheetId="63" r:id="rId57"/>
+    <sheet name="セーフティエリアタイルリソース" sheetId="64" r:id="rId58"/>
+    <sheet name="編集許可" sheetId="56" r:id="rId59"/>
+    <sheet name="要件等案件" sheetId="72" r:id="rId60"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="779">
   <si>
     <t>パーティ</t>
     <phoneticPr fontId="1"/>
@@ -3892,10 +3894,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アイテムのリソース</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -6255,76 +6253,577 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>攻撃</t>
+    <t>※押しにくい為要検討</t>
+    <rPh sb="1" eb="2">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ヨウケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現状の仕様では少し問題があるところを記述</t>
     <rPh sb="0" eb="2">
+      <t>ゲンジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム画面にある斜め移動モードのキー割り当て</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナナ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要検討案件</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アンケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要検討案件</t>
+    <rPh sb="1" eb="3">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イージーダンジョン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノーマルダンジョン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>縦</t>
+    <rPh sb="0" eb="1">
+      <t>タテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横</t>
+    <rPh sb="0" eb="1">
+      <t>ヨコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハードダンジョン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大部屋</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ヘヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難易度の高いダンジョンでは一定確率でこの形かつモンスターハウスに</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カタチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特定のアイテム使用時にもこの形に</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>シヨウジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カタチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中部屋２部屋</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>片方の部屋は必ずモンスターハウス</t>
+    <rPh sb="0" eb="2">
+      <t>カタホウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カナラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要素</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>店</t>
+    <rPh sb="0" eb="1">
+      <t>ミセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モンスターハウス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モンスター、アイテム、罠が大量にある部屋</t>
+    <rPh sb="11" eb="12">
+      <t>ワナ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タイリョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>罠テーブル</t>
+    <rPh sb="0" eb="1">
+      <t>ワナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>罠</t>
+    <rPh sb="0" eb="1">
+      <t>ワナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳しくは'罠テーブル'参照</t>
+    <rPh sb="0" eb="1">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ワナ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値は'ダメージ等各種計算'参照</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>踏むと作動し、様々な効果が発動する。　　　踏んでも作動しない場合も。　　　　　　　　基本は不可視。特定のアイテムの使用と、踏むことで可視化(作動しなくても可視状態に)。　　　　　　　　　　　　　　　　　　　敵が乗っても発動しない。</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サドウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>フカシ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="66" eb="69">
+      <t>カシカ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>サドウ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>ハツドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>罠の上にはアイテムは存在できない。　　　　　罠に乗った状態でアイテムを置くと、周囲８マスのうちからアイテムが配置できるマスを探して配置。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムの売買が可能　　　　　　　　　　　固定で9個のアイテムを販売。それに伴い部屋サイズが10×10以上限定。　　　　　　　　　　落ちているアイテムを拾い、店員に話しかけることで購入可能。売る場合はアイテムを置いてから話しかける。</t>
+    <rPh sb="5" eb="7">
+      <t>バイバイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>トモナ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>テンイン</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部屋から伸びる通路の数==店員を配置　　攻撃を仕掛けることで店員が敵になる。　　また、盗みを働いた場合は店員が敵になることに加え、特定の敵が出現　　</t>
+    <rPh sb="0" eb="2">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツウロ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テンイン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
       <t>コウゲキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>通常攻撃</t>
+    <rPh sb="23" eb="25">
+      <t>シカ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>テンイン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ヌス</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ハタラ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>テンイン</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盗み時の敵の詳細は'エネミーテーブル参照'</t>
+    <rPh sb="0" eb="1">
+      <t>ヌス</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エネミーテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>店関係</t>
+    <rPh sb="0" eb="1">
+      <t>ミセ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>店員</t>
     <rPh sb="0" eb="2">
-      <t>ツウジョウ</t>
+      <t>テンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>織田信長</t>
+    <rPh sb="0" eb="2">
+      <t>オダ</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レベル攻撃力 + ちから攻撃力 + 装備攻撃力</t>
-    <rPh sb="3" eb="6">
+      <t>ノブナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体力</t>
+    <rPh sb="0" eb="2">
+      <t>タイリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力</t>
+    <rPh sb="0" eb="3">
       <t>コウゲキリョク</t>
     </rPh>
-    <rPh sb="12" eb="15">
-      <t>コウゲキリョク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ソウビ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>コウゲキリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レベル攻撃力 = (レベル * 0.4 + 1) * 24 -3</t>
-    <rPh sb="3" eb="6">
-      <t>コウゲキリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ちから攻撃力</t>
-    <rPh sb="3" eb="6">
-      <t>コウゲキリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ちから７以下 ()</t>
-    <rPh sb="4" eb="6">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(攻撃 * 乱数 / 100 - 守備) * 追加効果</t>
-    <rPh sb="1" eb="3">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ランスウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>シュビ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>コウカ</t>
-    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防御力</t>
+    <rPh sb="0" eb="3">
+      <t>ボウギョリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワイバーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アーチャー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経験値</t>
+    <rPh sb="0" eb="3">
+      <t>ケイケンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちびのぶ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>でかのぶ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特徴</t>
+    <rPh sb="0" eb="2">
+      <t>トクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>倍速</t>
+    <rPh sb="0" eb="2">
+      <t>バイソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バーサーカー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6411,7 +6910,7 @@
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6465,6 +6964,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7521,10 +8023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A58"/>
+  <dimension ref="A1:A60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7539,282 +8041,292 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>614</v>
+        <v>752</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A59" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A60" s="1" t="s">
+        <v>737</v>
       </c>
     </row>
   </sheetData>
@@ -7858,23 +8370,25 @@
     <hyperlink ref="A41" location="素材テーブル!A1" display="素材テーブル!A1"/>
     <hyperlink ref="A42" location="調合テーブル!A1" display="調合テーブル!A1"/>
     <hyperlink ref="A43" location="錬金テーブル!A1" display="錬金テーブル!A1"/>
-    <hyperlink ref="A44" location="図鑑テーブル!A1" display="図鑑テーブル!A1"/>
-    <hyperlink ref="A45" location="セーフティエリア詳細!A1" display="セーフティエリア詳細!A1"/>
-    <hyperlink ref="A46" location="ダンジョン詳細!A1" display="ダンジョン詳細!A1"/>
-    <hyperlink ref="A47" location="ダンジョン種類!A1" display="ダンジョン種類!A1"/>
-    <hyperlink ref="A48" location="ダメージ等各種計算!A1" display="ダメージ等各種計算!A1"/>
-    <hyperlink ref="A49" location="プレイアブルキャラクターリソース!A1" display="プレイアブルキャラクターリソース!A1"/>
-    <hyperlink ref="A50" location="エネミーリソース!A1" display="エネミーリソース!A1"/>
-    <hyperlink ref="A51" location="エフェクトリソース!A1" display="エフェクトリソース!A1"/>
-    <hyperlink ref="A52" location="武器リソース!A1" display="武器リソース!A1"/>
-    <hyperlink ref="A53" location="盾リソース!A1" display="盾リソース!A1"/>
-    <hyperlink ref="A54" location="アイテムリソース!A1" display="アイテムリソース!A1"/>
-    <hyperlink ref="A55" location="罠リソース!A1" display="罠リソース!A1"/>
-    <hyperlink ref="A56" location="ダンジョンタイルリソース!A1" display="ダンジョンタイルリソース!A1"/>
-    <hyperlink ref="A57" location="セーフティエリアタイルリソース!A1" display="セーフティエリアタイルリソース!A1"/>
-    <hyperlink ref="A58" location="編集許可!A1" display="編集許可!A1"/>
+    <hyperlink ref="A45" location="図鑑テーブル!A1" display="図鑑テーブル!A1"/>
+    <hyperlink ref="A46" location="セーフティエリア詳細!A1" display="セーフティエリア詳細!A1"/>
+    <hyperlink ref="A47" location="ダンジョン詳細!A1" display="ダンジョン詳細!A1"/>
+    <hyperlink ref="A48" location="ダンジョン種類!A1" display="ダンジョン種類!A1"/>
+    <hyperlink ref="A49" location="ダメージ等各種計算!A1" display="ダメージ等各種計算!A1"/>
+    <hyperlink ref="A50" location="プレイアブルキャラクターリソース!A1" display="プレイアブルキャラクターリソース!A1"/>
+    <hyperlink ref="A51" location="エネミーリソース!A1" display="エネミーリソース!A1"/>
+    <hyperlink ref="A52" location="エフェクトリソース!A1" display="エフェクトリソース!A1"/>
+    <hyperlink ref="A53" location="武器リソース!A1" display="武器リソース!A1"/>
+    <hyperlink ref="A54" location="盾リソース!A1" display="盾リソース!A1"/>
+    <hyperlink ref="A55" location="アイテムリソース!A1" display="アイテムリソース!A1"/>
+    <hyperlink ref="A56" location="罠リソース!A1" display="罠リソース!A1"/>
+    <hyperlink ref="A57" location="ダンジョンタイルリソース!A1" display="ダンジョンタイルリソース!A1"/>
+    <hyperlink ref="A58" location="セーフティエリアタイルリソース!A1" display="セーフティエリアタイルリソース!A1"/>
+    <hyperlink ref="A59" location="編集許可!A1" display="編集許可!A1"/>
     <hyperlink ref="A5" location="各種画面へのフロー!A1" display="各種画面へのフロー"/>
     <hyperlink ref="A17" location="アイテム別アクションコマンド!A1" display="アイテム別アクションコマンド"/>
+    <hyperlink ref="A60" location="要件等案件!A1" display="要件等案件!A1"/>
+    <hyperlink ref="A44" location="罠テーブル!A1" display="罠テーブル"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7897,46 +8411,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
+        <v>645</v>
+      </c>
+      <c r="C5" t="s">
         <v>646</v>
-      </c>
-      <c r="C5" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
+        <v>647</v>
+      </c>
+      <c r="C6" t="s">
         <v>648</v>
-      </c>
-      <c r="C6" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
   </sheetData>
@@ -7967,7 +8481,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -7977,49 +8491,49 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>723</v>
+      </c>
+      <c r="B4" t="s">
         <v>724</v>
-      </c>
-      <c r="B4" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
+        <v>645</v>
+      </c>
+      <c r="C8" t="s">
         <v>646</v>
-      </c>
-      <c r="C8" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
+        <v>647</v>
+      </c>
+      <c r="C9" t="s">
         <v>648</v>
-      </c>
-      <c r="C9" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C10" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
   </sheetData>
@@ -8049,44 +8563,44 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
+        <v>645</v>
+      </c>
+      <c r="C6" t="s">
         <v>646</v>
-      </c>
-      <c r="C6" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
+        <v>647</v>
+      </c>
+      <c r="C7" t="s">
         <v>648</v>
-      </c>
-      <c r="C7" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C8" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>
@@ -8121,76 +8635,76 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="13" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>667</v>
+      </c>
+      <c r="B6" t="s">
         <v>668</v>
-      </c>
-      <c r="B6" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="14" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
+        <v>659</v>
+      </c>
+      <c r="C11" t="s">
         <v>660</v>
-      </c>
-      <c r="C11" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C13" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="14" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
   </sheetData>
@@ -8223,10 +8737,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>662</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>663</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -8242,7 +8756,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -8260,167 +8774,167 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
@@ -8430,110 +8944,110 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B53" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B58" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B59" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B61" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B64" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B66" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B67" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B71" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B72" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B73" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B74" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B78" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
@@ -8541,7 +9055,7 @@
         <v>45</v>
       </c>
       <c r="C82" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
@@ -8554,10 +9068,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B84" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C84" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -8586,17 +9100,17 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -8604,7 +9118,7 @@
         <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -8617,10 +9131,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -8646,12 +9160,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -8659,15 +9173,15 @@
         <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -8719,7 +9233,7 @@
         <v>222</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>308</v>
@@ -8753,7 +9267,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>324</v>
@@ -8765,10 +9279,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
+        <v>714</v>
+      </c>
+      <c r="B8" t="s">
         <v>715</v>
-      </c>
-      <c r="B8" t="s">
-        <v>716</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -9289,7 +9803,7 @@
     </row>
     <row r="25" spans="1:4" ht="108" x14ac:dyDescent="0.45">
       <c r="B25" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>292</v>
@@ -9522,89 +10036,89 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>632</v>
+      </c>
+      <c r="B7" t="s">
         <v>633</v>
-      </c>
-      <c r="B7" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
+        <v>639</v>
+      </c>
+      <c r="B15" t="s">
         <v>640</v>
-      </c>
-      <c r="B15" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
   </sheetData>
@@ -9819,122 +10333,122 @@
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C40" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C41" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C42" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C43" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C44" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C45" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C46" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C47" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C48" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C49" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B53" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B55" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B56" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B57" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B58" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B59" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -9968,13 +10482,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1" t="s">
         <v>407</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>408</v>
-      </c>
-      <c r="C1" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -9982,10 +10496,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -9993,10 +10507,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -10004,10 +10518,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -10015,10 +10529,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -10026,10 +10540,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -10037,10 +10551,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -10048,10 +10562,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -10059,10 +10573,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -10070,10 +10584,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -10081,10 +10595,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -10092,10 +10606,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -10103,10 +10617,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -10114,10 +10628,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -10125,10 +10639,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C15" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
@@ -10136,10 +10650,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -10147,10 +10661,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -10158,10 +10672,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
@@ -10169,10 +10683,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C19" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
@@ -10180,10 +10694,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
@@ -10191,10 +10705,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C21" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
@@ -10202,10 +10716,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C22" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -10213,10 +10727,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C23" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
@@ -10224,10 +10738,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C24" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
@@ -10235,10 +10749,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C25" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
@@ -10246,10 +10760,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C26" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
@@ -10257,10 +10771,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C27" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
@@ -10268,10 +10782,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C28" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
@@ -10279,10 +10793,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C29" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
@@ -10290,10 +10804,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C30" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
@@ -10301,10 +10815,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C31" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
@@ -10312,10 +10826,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C32" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
@@ -10323,10 +10837,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C33" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
@@ -10334,10 +10848,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
@@ -10345,10 +10859,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C35" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
@@ -10356,10 +10870,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C36" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
@@ -10367,10 +10881,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>518</v>
+      </c>
+      <c r="C37" t="s">
         <v>519</v>
-      </c>
-      <c r="C37" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
@@ -10378,10 +10892,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C38" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
@@ -10389,10 +10903,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C39" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
@@ -10400,10 +10914,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C40" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
@@ -10411,10 +10925,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C41" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
@@ -10422,10 +10936,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C42" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
@@ -10433,10 +10947,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C43" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
@@ -10444,10 +10958,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C44" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
@@ -10455,10 +10969,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C45" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
@@ -10466,10 +10980,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C46" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
@@ -10477,10 +10991,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C47" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
@@ -10488,10 +11002,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C48" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
@@ -10499,10 +11013,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C49" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
@@ -10510,10 +11024,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C50" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
@@ -10521,10 +11035,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C51" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
@@ -10532,10 +11046,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>524</v>
+      </c>
+      <c r="C52" t="s">
         <v>525</v>
-      </c>
-      <c r="C52" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
@@ -10543,10 +11057,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C53" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
@@ -10554,10 +11068,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C54" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
@@ -10565,10 +11079,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C55" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
@@ -10576,10 +11090,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C56" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
@@ -10587,10 +11101,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C57" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
@@ -10598,10 +11112,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C58" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -10649,19 +11163,19 @@
         <v>328</v>
       </c>
       <c r="C1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D1" t="s">
         <v>393</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>394</v>
       </c>
-      <c r="E1" t="s">
-        <v>395</v>
-      </c>
       <c r="F1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1" t="s">
         <v>482</v>
-      </c>
-      <c r="G1" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -10669,7 +11183,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
@@ -10681,10 +11195,10 @@
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -10704,10 +11218,10 @@
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -10715,7 +11229,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C4" s="10">
         <v>0.9</v>
@@ -10727,7 +11241,7 @@
         <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G4" t="s">
         <v>329</v>
@@ -10750,7 +11264,7 @@
         <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G5" t="s">
         <v>326</v>
@@ -10761,7 +11275,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C6" s="9">
         <v>1</v>
@@ -10773,10 +11287,10 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
+        <v>399</v>
+      </c>
+      <c r="G6" t="s">
         <v>400</v>
-      </c>
-      <c r="G6" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -10784,7 +11298,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C7" s="11">
         <v>0.9</v>
@@ -10796,10 +11310,10 @@
         <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -10807,7 +11321,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C8" s="11">
         <v>0.9</v>
@@ -10819,10 +11333,10 @@
         <v>30</v>
       </c>
       <c r="F8" t="s">
+        <v>398</v>
+      </c>
+      <c r="G8" t="s">
         <v>399</v>
-      </c>
-      <c r="G8" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -10830,7 +11344,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C9" s="11">
         <v>1.1000000000000001</v>
@@ -10842,10 +11356,10 @@
         <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -10853,7 +11367,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C10" s="11">
         <v>1.1000000000000001</v>
@@ -10865,10 +11379,10 @@
         <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -10879,19 +11393,19 @@
         <v>153</v>
       </c>
       <c r="C13" t="s">
+        <v>392</v>
+      </c>
+      <c r="D13" t="s">
         <v>393</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>394</v>
       </c>
-      <c r="E13" t="s">
-        <v>395</v>
-      </c>
       <c r="F13" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -10899,7 +11413,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C14" s="11">
         <v>1.1000000000000001</v>
@@ -10911,10 +11425,10 @@
         <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -10996,59 +11510,59 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C2" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2" t="s">
         <v>534</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>535</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>536</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>537</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>538</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>539</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>540</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>541</v>
-      </c>
-      <c r="K2" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
+        <v>542</v>
+      </c>
+      <c r="C3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D3" t="s">
         <v>543</v>
       </c>
-      <c r="C3" t="s">
-        <v>485</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>544</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>545</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>546</v>
-      </c>
-      <c r="G3" t="s">
-        <v>547</v>
       </c>
       <c r="H3">
         <v>15</v>
@@ -11062,22 +11576,22 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
+        <v>547</v>
+      </c>
+      <c r="C4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D4" t="s">
         <v>548</v>
       </c>
-      <c r="C4" t="s">
-        <v>397</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>549</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>550</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>551</v>
-      </c>
-      <c r="G4" t="s">
-        <v>552</v>
       </c>
       <c r="H4">
         <v>16</v>
@@ -11110,12 +11624,137 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.796875" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C1" t="s">
+        <v>766</v>
+      </c>
+      <c r="D1" t="s">
+        <v>767</v>
+      </c>
+      <c r="E1" t="s">
+        <v>768</v>
+      </c>
+      <c r="F1" t="s">
+        <v>769</v>
+      </c>
+      <c r="G1" t="s">
+        <v>773</v>
+      </c>
+      <c r="H1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>770</v>
+      </c>
+      <c r="C3" t="s">
+        <v>771</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>763</v>
+      </c>
+      <c r="B7" t="s">
+        <v>764</v>
+      </c>
+      <c r="C7" t="s">
+        <v>772</v>
+      </c>
+      <c r="D7">
+        <v>300</v>
+      </c>
+      <c r="E7">
+        <v>300</v>
+      </c>
+      <c r="F7">
+        <v>300</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>774</v>
+      </c>
+      <c r="C8" t="s">
+        <v>772</v>
+      </c>
+      <c r="D8">
+        <v>90</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>775</v>
+      </c>
+      <c r="C9" t="s">
+        <v>778</v>
+      </c>
+      <c r="D9">
+        <v>500</v>
+      </c>
+      <c r="E9">
+        <v>500</v>
+      </c>
+      <c r="F9">
+        <v>300</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11156,7 +11795,7 @@
         <v>229</v>
       </c>
       <c r="C4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D4" t="s">
         <v>232</v>
@@ -11416,7 +12055,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -11506,55 +12145,192 @@
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="36" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>342</v>
-      </c>
-      <c r="C4">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>343</v>
-      </c>
-      <c r="C5">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="38.69921875" customWidth="1"/>
+    <col min="4" max="4" width="35.8984375" customWidth="1"/>
+    <col min="5" max="5" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="96.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>753</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>757</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="108" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>749</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>750</v>
+      </c>
+      <c r="C6" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="36" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>743</v>
+      </c>
+      <c r="B23" t="s">
+        <v>744</v>
+      </c>
+      <c r="H23" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>740</v>
+      </c>
+      <c r="C24">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>741</v>
+      </c>
+      <c r="C25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>746</v>
+      </c>
+      <c r="B28" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>741</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="E4" location="罠テーブル!A1" display="詳しくは'罠テーブル'参照"/>
+    <hyperlink ref="F4" location="ダメージ等各種計算!A1" display="数値は'ダメージ等各種計算'参照"/>
+    <hyperlink ref="E5" location="エネミーテーブル!A1" display="盗み時の敵の詳細は'エネミーテーブル参照'"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -11567,12 +12343,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -11582,650 +12358,14 @@
     <col min="3" max="3" width="38.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>732</v>
-      </c>
-      <c r="B5" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>731</v>
-      </c>
-      <c r="B7" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>735</v>
-      </c>
-      <c r="C9" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E125"/>
-  <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="I68" sqref="I68"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="30.59765625" customWidth="1"/>
-    <col min="2" max="2" width="25.296875" customWidth="1"/>
-    <col min="3" max="3" width="15.3984375" customWidth="1"/>
-    <col min="4" max="4" width="14.59765625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>353</v>
-      </c>
-      <c r="B5" t="s">
-        <v>364</v>
-      </c>
-      <c r="C5" t="s">
-        <v>365</v>
-      </c>
-      <c r="D5" t="s">
-        <v>366</v>
-      </c>
-      <c r="E5" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>357</v>
-      </c>
-      <c r="C6" t="s">
-        <v>302</v>
-      </c>
-      <c r="D6" t="s">
-        <v>302</v>
-      </c>
-      <c r="E6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>386</v>
-      </c>
-      <c r="B16" t="s">
-        <v>355</v>
-      </c>
-      <c r="C16" t="s">
-        <v>387</v>
-      </c>
-      <c r="D16" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>357</v>
-      </c>
-      <c r="C17" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B22" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B23" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B24" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>355</v>
-      </c>
-      <c r="C27" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B28" t="s">
-        <v>357</v>
-      </c>
-      <c r="C28" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B29" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B30" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B31" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B32" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B34" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B35" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>372</v>
-      </c>
-      <c r="B38" t="s">
-        <v>355</v>
-      </c>
-      <c r="D38" t="s">
-        <v>369</v>
-      </c>
-      <c r="E38" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B39" t="s">
-        <v>357</v>
-      </c>
-      <c r="C39" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B40" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B41" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B42" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B43" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B44" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B45" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B46" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B50" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B51" t="s">
-        <v>357</v>
-      </c>
-      <c r="C51" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B52" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B53" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B54" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B55" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B56" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B57" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B58" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
-        <v>371</v>
-      </c>
-      <c r="B61" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B62" t="s">
-        <v>357</v>
-      </c>
-      <c r="C62" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B63" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B64" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B65" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B66" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B67" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B68" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B69" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
-        <v>391</v>
-      </c>
-      <c r="B72" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B73" t="s">
-        <v>357</v>
-      </c>
-      <c r="C73" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B74" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B75" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B76" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B77" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B78" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B79" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B80" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A82" t="s">
-        <v>374</v>
-      </c>
-      <c r="B82" t="s">
-        <v>355</v>
-      </c>
-      <c r="C82" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B83" t="s">
-        <v>357</v>
-      </c>
-      <c r="C83" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B84" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B85" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B86" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B87" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B88" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B89" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B90" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A93" t="s">
-        <v>376</v>
-      </c>
-      <c r="B93" t="s">
-        <v>377</v>
-      </c>
-      <c r="C93" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B94" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A97" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B98" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A101" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B102" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A105" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B106" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A109" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B110" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A113" t="s">
-        <v>382</v>
-      </c>
-      <c r="B113" t="s">
-        <v>355</v>
-      </c>
-      <c r="C113" t="s">
-        <v>383</v>
-      </c>
-      <c r="D113" t="s">
-        <v>384</v>
-      </c>
-      <c r="E113" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B114" t="s">
-        <v>357</v>
-      </c>
-      <c r="C114" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B115" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B116" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B117" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B118" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B119" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B120" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B121" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A124" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B125" t="s">
-        <v>302</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12389,14 +12529,603 @@
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="30.59765625" customWidth="1"/>
+    <col min="2" max="2" width="25.296875" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D6" t="s">
+        <v>302</v>
+      </c>
+      <c r="E6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>385</v>
+      </c>
+      <c r="B16" t="s">
+        <v>354</v>
+      </c>
+      <c r="C16" t="s">
+        <v>386</v>
+      </c>
+      <c r="D16" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>356</v>
+      </c>
+      <c r="C17" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>354</v>
+      </c>
+      <c r="C27" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>356</v>
+      </c>
+      <c r="C28" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>371</v>
+      </c>
+      <c r="B38" t="s">
+        <v>354</v>
+      </c>
+      <c r="D38" t="s">
+        <v>368</v>
+      </c>
+      <c r="E38" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>356</v>
+      </c>
+      <c r="C39" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B45" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B46" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B50" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B51" t="s">
+        <v>356</v>
+      </c>
+      <c r="C51" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B52" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B53" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B54" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B55" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B56" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B57" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B58" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>370</v>
+      </c>
+      <c r="B61" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B62" t="s">
+        <v>356</v>
+      </c>
+      <c r="C62" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B63" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B64" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B65" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B66" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B67" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B68" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B69" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>390</v>
+      </c>
+      <c r="B72" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B73" t="s">
+        <v>356</v>
+      </c>
+      <c r="C73" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B74" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B75" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B76" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B77" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B78" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B79" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B80" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>373</v>
+      </c>
+      <c r="B82" t="s">
+        <v>354</v>
+      </c>
+      <c r="C82" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B83" t="s">
+        <v>356</v>
+      </c>
+      <c r="C83" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B84" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B85" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B86" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B87" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B88" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B89" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B90" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>375</v>
+      </c>
+      <c r="B93" t="s">
+        <v>376</v>
+      </c>
+      <c r="C93" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B94" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B98" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B102" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B106" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B110" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>381</v>
+      </c>
+      <c r="B113" t="s">
+        <v>354</v>
+      </c>
+      <c r="C113" t="s">
+        <v>382</v>
+      </c>
+      <c r="D113" t="s">
+        <v>383</v>
+      </c>
+      <c r="E113" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B114" t="s">
+        <v>356</v>
+      </c>
+      <c r="C114" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B115" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B116" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B117" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B118" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B119" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B120" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B121" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B125" t="s">
+        <v>302</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12441,6 +13170,19 @@
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12454,22 +13196,22 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C5" t="s">
         <v>302</v>
@@ -12477,31 +13219,18 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C9" t="s">
         <v>302</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12535,10 +13264,23 @@
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B15"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -12610,28 +13352,28 @@
       </c>
       <c r="B15" s="14"/>
     </row>
-    <row r="19" spans="1:14" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="A19" s="17" t="s">
+    <row r="18" spans="1:14" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A18" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B10:B15"/>
-    <mergeCell ref="A19:N19"/>
+    <mergeCell ref="A18:N18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12653,28 +13395,28 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>719</v>
+      </c>
+      <c r="B3" t="s">
         <v>720</v>
-      </c>
-      <c r="B3" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -12687,14 +13429,59 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="39.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>731</v>
+      </c>
+      <c r="B3" t="s">
+        <v>734</v>
+      </c>
+      <c r="C3" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>732</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C4" location="ゲーム画面!A1" display="ここ"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12703,8 +13490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="C28" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -12721,12 +13508,12 @@
         <v>175</v>
       </c>
       <c r="B1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -12814,7 +13601,7 @@
         <v>52</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
@@ -12843,7 +13630,7 @@
         <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D23" s="1"/>
     </row>
@@ -12922,7 +13709,7 @@
         <v>68</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.45">
@@ -12930,13 +13717,13 @@
         <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.45">
@@ -12960,6 +13747,9 @@
       <c r="D36" t="s">
         <v>68</v>
       </c>
+      <c r="E36" t="s">
+        <v>730</v>
+      </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
@@ -12974,7 +13764,7 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C38" t="s">
         <v>48</v>
@@ -12983,21 +13773,21 @@
         <v>74</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C39" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D39" t="s">
         <v>74</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -13043,10 +13833,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>704</v>
+      </c>
+      <c r="B4" t="s">
         <v>705</v>
-      </c>
-      <c r="B4" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -13060,7 +13850,7 @@
         <v>288</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -13071,10 +13861,10 @@
         <v>285</v>
       </c>
       <c r="C6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -13085,18 +13875,18 @@
         <v>282</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
+        <v>706</v>
+      </c>
+      <c r="B8" t="s">
         <v>707</v>
-      </c>
-      <c r="B8" t="s">
-        <v>708</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -13106,36 +13896,36 @@
         <v>283</v>
       </c>
       <c r="B9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C13" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
+        <v>571</v>
+      </c>
+      <c r="C14" t="s">
         <v>572</v>
-      </c>
-      <c r="C14" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C15" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -13196,7 +13986,7 @@
         <v>179</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -13227,7 +14017,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C17" t="s">
         <v>50</v>
@@ -13235,13 +14025,13 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C18" t="s">
         <v>305</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
   </sheetData>
